--- a/SO SACH - LA/CONG NO/CONG NO 2015/No Vay EIB.xlsx
+++ b/SO SACH - LA/CONG NO/CONG NO 2015/No Vay EIB.xlsx
@@ -21,7 +21,7 @@
     <sheet name="12" sheetId="46" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'12'!$A$3:$S$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'12'!$A$3:$S$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'T01 15'!$A$3:$S$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'T02 15'!$A$3:$S$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'T03 15'!$A$3:$S$24</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="102">
   <si>
     <t>Stt</t>
   </si>
@@ -332,13 +332,19 @@
     <t>1402LDS201503829</t>
   </si>
   <si>
-    <t>1402LDS201501740</t>
+    <t>1015LDS201503206</t>
   </si>
   <si>
-    <t>1402LDS2015</t>
+    <t>1015LDS201503420</t>
   </si>
   <si>
-    <t>1015LDS201503206</t>
+    <t>1402LDS201503901</t>
+  </si>
+  <si>
+    <t>1402LDS201503946</t>
+  </si>
+  <si>
+    <t>1402LDS201502638</t>
   </si>
 </sst>
 </file>
@@ -7919,13 +7925,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -8402,7 +8408,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="136" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C11" s="137">
         <v>42234</v>
@@ -8463,7 +8469,7 @@
       </c>
       <c r="E12" s="138"/>
       <c r="F12" s="138">
-        <v>76300</v>
+        <v>70900</v>
       </c>
       <c r="G12" s="139">
         <v>2019360000</v>
@@ -8474,13 +8480,13 @@
       <c r="K12" s="140"/>
       <c r="L12" s="140">
         <f>F12-J12</f>
-        <v>76300</v>
+        <v>70900</v>
       </c>
       <c r="M12" s="138"/>
       <c r="N12" s="138"/>
       <c r="O12" s="138">
         <f>IF((LEFT(B12,4)="1402"),F12*R12*DATEDIF(Q12,O$1,"d")/360,0)</f>
-        <v>254.33333333333334</v>
+        <v>236.33333333333334</v>
       </c>
       <c r="P12" s="138">
         <f>IF((LEFT(B12,4)="1015"),F12*R12*DATEDIF(Q12,Q$1,"d")/360,0)</f>
@@ -8503,13 +8509,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="136" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C13" s="137">
-        <v>42346</v>
+        <v>42348</v>
       </c>
       <c r="D13" s="137">
-        <v>42529</v>
+        <v>42531</v>
       </c>
       <c r="E13" s="138"/>
       <c r="F13" s="138">
@@ -8553,7 +8559,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="147" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="137">
         <v>42346</v>
@@ -8629,7 +8635,7 @@
       <c r="E16" s="65"/>
       <c r="F16" s="66">
         <f>SUM(F10:F15)</f>
-        <v>267200</v>
+        <v>261800</v>
       </c>
       <c r="G16" s="65">
         <f>SUM(G9:G13)</f>
@@ -8644,7 +8650,7 @@
       <c r="K16" s="65"/>
       <c r="L16" s="66">
         <f>SUM(L10:L15)</f>
-        <v>267200</v>
+        <v>261800</v>
       </c>
       <c r="M16" s="65"/>
       <c r="N16" s="65">
@@ -8653,7 +8659,7 @@
       </c>
       <c r="O16" s="66">
         <f>SUM(O10:O15)</f>
-        <v>890.66666666666663</v>
+        <v>872.66666666666663</v>
       </c>
       <c r="P16" s="66">
         <f>SUM(P10:P15)</f>
@@ -8665,42 +8671,42 @@
     </row>
     <row r="17" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" ref="A17:A25" si="1">ROW()-15</f>
         <v>2</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C17" s="30">
-        <v>42180</v>
+        <v>42205</v>
       </c>
       <c r="D17" s="30">
-        <v>42363</v>
+        <v>42389</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26">
-        <v>70000</v>
+        <v>97000</v>
       </c>
       <c r="G17" s="97">
-        <v>2015900000</v>
+        <v>1965255000</v>
       </c>
       <c r="H17" s="30"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
-      <c r="K17" s="85"/>
+      <c r="K17" s="81"/>
       <c r="L17" s="81">
-        <f>F17-J17</f>
-        <v>70000</v>
+        <f t="shared" ref="L17:L25" si="2">F17-J17</f>
+        <v>97000</v>
       </c>
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
       <c r="O17" s="23">
-        <f>IF((LEFT(B17,4)="1402"),F17*R17*DATEDIF(Q17,O$1,"d")/360,0)</f>
+        <f t="shared" ref="O17:O25" si="3">IF((LEFT(B17,4)="1402"),F17*R17*DATEDIF(Q17,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P17" s="26">
-        <f>IF((LEFT(B17,4)="1015"),F17*R17*DATEDIF(Q17,Q$1,"d")/360,0)</f>
-        <v>233.33333333333334</v>
+        <f t="shared" ref="P17:P25" si="4">IF((LEFT(B17,4)="1015"),F17*R17*DATEDIF(Q17,Q$1,"d")/360,0)</f>
+        <v>323.33333333333331</v>
       </c>
       <c r="Q17" s="44">
         <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
@@ -8709,49 +8715,48 @@
       <c r="R17" s="46">
         <v>0.04</v>
       </c>
-      <c r="S17" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="T17" s="143"/>
+      <c r="S17" s="37" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="18" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B18" s="50" t="s">
-        <v>56</v>
+      <c r="B18" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="C18" s="30">
-        <v>42184</v>
+        <v>42247</v>
       </c>
       <c r="D18" s="30">
-        <v>42367</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26">
-        <v>21000</v>
-      </c>
-      <c r="G18" s="97">
-        <v>2015900000</v>
+        <v>42429</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23">
+        <v>82000</v>
+      </c>
+      <c r="G18" s="92">
+        <v>1894165000</v>
       </c>
       <c r="H18" s="30"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="81"/>
       <c r="L18" s="81">
-        <f>F18-J18</f>
-        <v>21000</v>
-      </c>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
+        <f t="shared" si="2"/>
+        <v>82000</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
       <c r="O18" s="23">
-        <f>IF((LEFT(B18,4)="1402"),F18*R18*DATEDIF(Q18,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P18" s="26">
-        <f>IF((LEFT(B18,4)="1015"),F18*R18*DATEDIF(Q18,Q$1,"d")/360,0)</f>
-        <v>70</v>
+        <f t="shared" si="4"/>
+        <v>273.33333333333331</v>
       </c>
       <c r="Q18" s="44">
         <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
@@ -8760,48 +8765,48 @@
       <c r="R18" s="46">
         <v>0.04</v>
       </c>
-      <c r="S18" s="38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="S18" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C19" s="30">
-        <v>42205</v>
+        <v>42250</v>
       </c>
       <c r="D19" s="30">
-        <v>42389</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26">
-        <v>97000</v>
-      </c>
-      <c r="G19" s="97">
-        <v>1965255000</v>
+        <v>42432</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23">
+        <v>40000</v>
+      </c>
+      <c r="G19" s="92">
+        <v>1997238540</v>
       </c>
       <c r="H19" s="30"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="81"/>
       <c r="L19" s="81">
-        <f>F19-J19</f>
-        <v>97000</v>
-      </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
       <c r="O19" s="23">
-        <f>IF((LEFT(B19,4)="1402"),F19*R19*DATEDIF(Q19,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P19" s="26">
-        <f>IF((LEFT(B19,4)="1015"),F19*R19*DATEDIF(Q19,Q$1,"d")/360,0)</f>
-        <v>323.33333333333331</v>
+        <f t="shared" si="4"/>
+        <v>133.33333333333334</v>
       </c>
       <c r="Q19" s="44">
         <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
@@ -8810,48 +8815,49 @@
       <c r="R19" s="46">
         <v>0.04</v>
       </c>
-      <c r="S19" s="37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
+      <c r="S19" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="T19" s="33"/>
+    </row>
+    <row r="20" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B20" s="49" t="s">
-        <v>89</v>
+      <c r="B20" s="50" t="s">
+        <v>91</v>
       </c>
       <c r="C20" s="30">
-        <v>42247</v>
+        <v>42251</v>
       </c>
       <c r="D20" s="30">
-        <v>42429</v>
+        <v>42433</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23">
-        <v>82000</v>
+        <v>50000</v>
       </c>
       <c r="G20" s="92">
-        <v>1894165000</v>
+        <v>1997238540</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
       <c r="K20" s="81"/>
       <c r="L20" s="81">
-        <f>F20-J20</f>
-        <v>82000</v>
+        <f t="shared" si="2"/>
+        <v>50000</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23">
-        <f>IF((LEFT(B20,4)="1402"),F20*R20*DATEDIF(Q20,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P20" s="26">
-        <f>IF((LEFT(B20,4)="1015"),F20*R20*DATEDIF(Q20,Q$1,"d")/360,0)</f>
-        <v>273.33333333333331</v>
+        <f t="shared" si="4"/>
+        <v>166.66666666666666</v>
       </c>
       <c r="Q20" s="44">
         <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
@@ -8860,175 +8866,166 @@
       <c r="R20" s="46">
         <v>0.04</v>
       </c>
-      <c r="S20" s="37" t="s">
-        <v>66</v>
+      <c r="S20" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="T20" s="33"/>
     </row>
     <row r="21" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B21" s="50" t="s">
-        <v>90</v>
+      <c r="B21" s="49" t="s">
+        <v>92</v>
       </c>
       <c r="C21" s="30">
-        <v>42250</v>
+        <v>42278</v>
       </c>
       <c r="D21" s="30">
-        <v>42432</v>
+        <v>42552</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23">
-        <v>40000</v>
+        <v>89500</v>
       </c>
       <c r="G21" s="92">
-        <v>1997238540</v>
+        <v>1894165000</v>
       </c>
       <c r="H21" s="30"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
-      <c r="K21" s="81"/>
+      <c r="K21" s="85"/>
       <c r="L21" s="81">
-        <f>F21-J21</f>
-        <v>40000</v>
+        <f t="shared" si="2"/>
+        <v>89500</v>
       </c>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23">
-        <f>IF((LEFT(B21,4)="1402"),F21*R21*DATEDIF(Q21,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P21" s="26">
-        <f>IF((LEFT(B21,4)="1015"),F21*R21*DATEDIF(Q21,Q$1,"d")/360,0)</f>
-        <v>133.33333333333334</v>
+        <f t="shared" si="4"/>
+        <v>775.66666666666663</v>
       </c>
       <c r="Q21" s="44">
-        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
-        <v>42326</v>
+        <v>42278</v>
       </c>
       <c r="R21" s="46">
         <v>0.04</v>
       </c>
       <c r="S21" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T21" s="33"/>
-    </row>
-    <row r="22" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
+        <v>73</v>
+      </c>
+      <c r="T21" s="143"/>
+    </row>
+    <row r="22" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B22" s="50" t="s">
-        <v>91</v>
+      <c r="B22" s="49" t="s">
+        <v>94</v>
       </c>
       <c r="C22" s="30">
-        <v>42251</v>
+        <v>42279</v>
       </c>
       <c r="D22" s="30">
-        <v>42433</v>
+        <v>42553</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23">
-        <v>50000</v>
-      </c>
-      <c r="G22" s="92">
-        <v>1997238540</v>
-      </c>
+        <v>89000</v>
+      </c>
+      <c r="G22" s="92"/>
       <c r="H22" s="30"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
-      <c r="K22" s="81"/>
+      <c r="K22" s="85"/>
       <c r="L22" s="81">
-        <f>F22-J22</f>
-        <v>50000</v>
+        <f t="shared" si="2"/>
+        <v>89000</v>
       </c>
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
       <c r="O22" s="23">
-        <f>IF((LEFT(B22,4)="1402"),F22*R22*DATEDIF(Q22,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P22" s="26">
-        <f>IF((LEFT(B22,4)="1015"),F22*R22*DATEDIF(Q22,Q$1,"d")/360,0)</f>
-        <v>166.66666666666666</v>
+        <f t="shared" si="4"/>
+        <v>761.44444444444446</v>
       </c>
       <c r="Q22" s="44">
-        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
-        <v>42326</v>
+        <v>42279</v>
       </c>
       <c r="R22" s="46">
         <v>0.04</v>
       </c>
-      <c r="S22" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T22" s="33"/>
-    </row>
-    <row r="23" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
+      <c r="S22" s="37"/>
+      <c r="T22" s="41"/>
+    </row>
+    <row r="23" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C23" s="30">
-        <v>42278</v>
+        <v>42328</v>
       </c>
       <c r="D23" s="30">
-        <v>42552</v>
+        <v>42602</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23">
-        <v>89500</v>
-      </c>
-      <c r="G23" s="92">
-        <v>1894165000</v>
-      </c>
+        <v>61000</v>
+      </c>
+      <c r="G23" s="92"/>
       <c r="H23" s="30"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
       <c r="K23" s="85"/>
       <c r="L23" s="81">
-        <f>F23-J23</f>
-        <v>89500</v>
+        <f t="shared" si="2"/>
+        <v>61000</v>
       </c>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23">
-        <f>IF((LEFT(B23,4)="1402"),F23*R23*DATEDIF(Q23,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P23" s="26">
-        <f>IF((LEFT(B23,4)="1015"),F23*R23*DATEDIF(Q23,Q$1,"d")/360,0)</f>
-        <v>775.66666666666663</v>
+        <f t="shared" si="4"/>
+        <v>189.77777777777777</v>
       </c>
       <c r="Q23" s="44">
-        <v>42278</v>
+        <v>42328</v>
       </c>
       <c r="R23" s="46">
         <v>0.04</v>
       </c>
-      <c r="S23" s="38" t="s">
-        <v>73</v>
-      </c>
+      <c r="S23" s="37"/>
+      <c r="T23" s="41"/>
     </row>
     <row r="24" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C24" s="30">
-        <v>42279</v>
+        <v>42339</v>
       </c>
       <c r="D24" s="30">
-        <v>42553</v>
+        <v>42614</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23">
@@ -9040,21 +9037,21 @@
       <c r="J24" s="23"/>
       <c r="K24" s="85"/>
       <c r="L24" s="81">
-        <f>F24-J24</f>
+        <f t="shared" si="2"/>
         <v>89000</v>
       </c>
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
       <c r="O24" s="23">
-        <f>IF((LEFT(B24,4)="1402"),F24*R24*DATEDIF(Q24,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P24" s="26">
-        <f>IF((LEFT(B24,4)="1015"),F24*R24*DATEDIF(Q24,Q$1,"d")/360,0)</f>
-        <v>761.44444444444446</v>
+        <f t="shared" si="4"/>
+        <v>168.11111111111111</v>
       </c>
       <c r="Q24" s="44">
-        <v>42279</v>
+        <v>42339</v>
       </c>
       <c r="R24" s="46">
         <v>0.04</v>
@@ -9064,214 +9061,230 @@
     </row>
     <row r="25" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B25" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="30">
-        <v>42328</v>
+      <c r="B25" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="88">
+        <v>42360</v>
       </c>
       <c r="D25" s="30">
-        <v>42602</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23">
-        <v>61000</v>
-      </c>
-      <c r="G25" s="92"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+        <v>42635</v>
+      </c>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90">
+        <v>88000</v>
+      </c>
+      <c r="G25" s="163">
+        <v>2015900000</v>
+      </c>
+      <c r="H25" s="88"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
       <c r="K25" s="85"/>
       <c r="L25" s="81">
-        <f>F25-J25</f>
-        <v>61000</v>
-      </c>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
+        <f t="shared" si="2"/>
+        <v>88000</v>
+      </c>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
       <c r="O25" s="23">
-        <f>IF((LEFT(B25,4)="1402"),F25*R25*DATEDIF(Q25,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P25" s="26">
-        <f>IF((LEFT(B25,4)="1015"),F25*R25*DATEDIF(Q25,Q$1,"d")/360,0)</f>
-        <v>189.77777777777777</v>
+        <f t="shared" si="4"/>
+        <v>293.33333333333331</v>
       </c>
       <c r="Q25" s="44">
-        <v>42328</v>
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42326</v>
       </c>
       <c r="R25" s="46">
         <v>0.04</v>
       </c>
-      <c r="S25" s="37"/>
-      <c r="T25" s="41"/>
+      <c r="S25" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="T25" s="143"/>
     </row>
     <row r="26" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="83">
-        <f>ROW()-15</f>
-        <v>11</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="88">
-        <v>42339</v>
-      </c>
-      <c r="D26" s="30">
-        <v>42614</v>
-      </c>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89">
-        <v>89000</v>
-      </c>
-      <c r="G26" s="91"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="81">
-        <f>F26-J26</f>
-        <v>89000</v>
-      </c>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="23">
-        <f>IF((LEFT(B26,4)="1402"),F26*R26*DATEDIF(Q26,O$1,"d")/360,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="26">
-        <f>IF((LEFT(B26,4)="1015"),F26*R26*DATEDIF(Q26,Q$1,"d")/360,0)</f>
-        <v>168.11111111111111</v>
-      </c>
-      <c r="Q26" s="44">
-        <v>42339</v>
-      </c>
-      <c r="R26" s="46">
-        <v>0.04</v>
-      </c>
-      <c r="S26" s="37"/>
-      <c r="T26" s="41"/>
-    </row>
-    <row r="27" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="107"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="110"/>
-    </row>
-    <row r="28" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A28" s="184" t="s">
+      <c r="A26" s="107"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="110"/>
+    </row>
+    <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="184"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="66">
-        <f>SUM(E10:E27)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="66">
-        <f>SUM(F17:F27)</f>
-        <v>688500</v>
-      </c>
-      <c r="G28" s="65">
-        <f>SUM(G10:G25)</f>
-        <v>27185680080</v>
-      </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="66">
-        <f>SUM(I17:I27)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="66">
-        <f>SUM(J17:J27)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="66">
-        <f>SUM(K17:K27)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="66">
-        <f>SUM(L17:L27)</f>
-        <v>688500</v>
-      </c>
-      <c r="M28" s="66">
-        <f>SUM(M10:M23)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66">
-        <f>SUM(O17:O27)</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="66">
-        <f>SUM(P17:P27)</f>
-        <v>3095</v>
-      </c>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="68"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="66">
+        <f>SUM(E10:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="66">
+        <f>SUM(F17:F26)</f>
+        <v>685500</v>
+      </c>
+      <c r="G27" s="65">
+        <f>SUM(G10:G24)</f>
+        <v>23153880080</v>
+      </c>
+      <c r="H27" s="64"/>
+      <c r="I27" s="66">
+        <f>SUM(I17:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="66">
+        <f>SUM(J17:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="66">
+        <f>SUM(K17:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="66">
+        <f>SUM(L17:L26)</f>
+        <v>685500</v>
+      </c>
+      <c r="M27" s="66">
+        <f>SUM(M10:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66">
+        <f>SUM(O17:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="66">
+        <f>SUM(P17:P26)</f>
+        <v>3085.0000000000005</v>
+      </c>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="68"/>
+    </row>
+    <row r="28" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="83">
+        <f t="shared" ref="A28:A41" si="5">ROW()-25</f>
+        <v>3</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="31">
+        <v>41870</v>
+      </c>
+      <c r="D28" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E28" s="29">
+        <v>1000000000</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29">
+        <v>1151700000</v>
+      </c>
+      <c r="H28" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I28" s="29">
+        <v>8340000</v>
+      </c>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29">
+        <f t="shared" ref="K28:K41" si="6">E28-I28</f>
+        <v>991660000</v>
+      </c>
+      <c r="L28" s="28"/>
+      <c r="M28" s="29">
+        <f t="shared" ref="M28:M41" si="7">IF((LEFT(B28,4)="1402"),E28*R28*DATEDIF(Q28,$M$1,"d")/360,0)</f>
+        <v>7916666.666666667</v>
+      </c>
+      <c r="N28" s="27"/>
+      <c r="O28" s="28">
+        <f t="shared" ref="O28:O41" si="8">IF((LEFT(B28,4)="1402"),F28*R28*DATEDIF(Q28,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="27">
+        <f t="shared" ref="P28:P41" si="9">IF((LEFT(B28,4)="1015"),F28*R28*DATEDIF(Q28,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="63">
+        <f>DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42327</v>
+      </c>
+      <c r="R28" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S28" s="98" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="83">
-        <f t="shared" ref="A29:A42" si="1">ROW()-25</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="31">
-        <v>41870</v>
+        <v>41905</v>
       </c>
       <c r="D29" s="31">
         <v>46253</v>
       </c>
       <c r="E29" s="29">
-        <v>1000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="29">
-        <v>1151700000</v>
+        <v>1894165000</v>
       </c>
       <c r="H29" s="31">
         <v>42632</v>
       </c>
       <c r="I29" s="29">
-        <v>8340000</v>
+        <v>16670000</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="29">
-        <f t="shared" ref="K29:K42" si="2">E29-I29</f>
-        <v>991660000</v>
+        <f t="shared" si="6"/>
+        <v>1983330000</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="29">
-        <f t="shared" ref="M29:M42" si="3">IF((LEFT(B29,4)="1402"),E29*R29*DATEDIF(Q29,$M$1,"d")/360,0)</f>
-        <v>7916666.666666667</v>
-      </c>
-      <c r="N29" s="27"/>
+        <f t="shared" si="7"/>
+        <v>15833333.333333334</v>
+      </c>
+      <c r="N29" s="28"/>
       <c r="O29" s="28">
-        <f t="shared" ref="O29:O42" si="4">IF((LEFT(B29,4)="1402"),F29*R29*DATEDIF(Q29,O$1,"d")/360,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P29" s="27">
-        <f t="shared" ref="P29:P42" si="5">IF((LEFT(B29,4)="1015"),F29*R29*DATEDIF(Q29,Q$1,"d")/360,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q29" s="63">
@@ -9281,54 +9294,52 @@
       <c r="R29" s="47">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="S29" s="98" t="s">
+      <c r="S29" s="100" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="31">
-        <v>41905</v>
+        <v>43</v>
+      </c>
+      <c r="C30" s="101">
+        <v>41934</v>
       </c>
       <c r="D30" s="31">
         <v>46253</v>
       </c>
-      <c r="E30" s="29">
-        <v>2000000000</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29">
-        <v>1894165000</v>
-      </c>
+      <c r="E30" s="102">
+        <v>1600000000</v>
+      </c>
+      <c r="F30" s="103"/>
+      <c r="G30" s="102"/>
       <c r="H30" s="31">
         <v>42632</v>
       </c>
-      <c r="I30" s="29">
-        <v>16670000</v>
-      </c>
-      <c r="J30" s="28"/>
+      <c r="I30" s="102">
+        <v>13340000</v>
+      </c>
+      <c r="J30" s="103"/>
       <c r="K30" s="29">
-        <f t="shared" si="2"/>
-        <v>1983330000</v>
-      </c>
-      <c r="L30" s="28"/>
+        <f t="shared" si="6"/>
+        <v>1586660000</v>
+      </c>
+      <c r="L30" s="103"/>
       <c r="M30" s="29">
-        <f t="shared" si="3"/>
-        <v>15833333.333333334</v>
-      </c>
-      <c r="N30" s="28"/>
+        <f t="shared" si="7"/>
+        <v>12666666.666666666</v>
+      </c>
+      <c r="N30" s="103"/>
       <c r="O30" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P30" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q30" s="63">
@@ -9344,20 +9355,20 @@
     </row>
     <row r="31" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C31" s="101">
-        <v>41934</v>
+        <v>41963</v>
       </c>
       <c r="D31" s="31">
         <v>46253</v>
       </c>
       <c r="E31" s="102">
-        <v>1600000000</v>
+        <v>1500000000</v>
       </c>
       <c r="F31" s="103"/>
       <c r="G31" s="102"/>
@@ -9365,29 +9376,29 @@
         <v>42632</v>
       </c>
       <c r="I31" s="102">
-        <v>13340000</v>
+        <v>12500000</v>
       </c>
       <c r="J31" s="103"/>
       <c r="K31" s="29">
-        <f t="shared" si="2"/>
-        <v>1586660000</v>
+        <f t="shared" si="6"/>
+        <v>1487500000</v>
       </c>
       <c r="L31" s="103"/>
       <c r="M31" s="29">
-        <f t="shared" si="3"/>
-        <v>12666666.666666666</v>
+        <f t="shared" si="7"/>
+        <v>11875000</v>
       </c>
       <c r="N31" s="103"/>
       <c r="O31" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P31" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q31" s="63">
-        <f>DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <f t="shared" ref="Q31:Q41" si="10">DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
         <v>42327</v>
       </c>
       <c r="R31" s="47">
@@ -9399,20 +9410,20 @@
     </row>
     <row r="32" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C32" s="101">
-        <v>41963</v>
+        <v>41984</v>
       </c>
       <c r="D32" s="31">
         <v>46253</v>
       </c>
       <c r="E32" s="102">
-        <v>1500000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F32" s="103"/>
       <c r="G32" s="102"/>
@@ -9420,29 +9431,29 @@
         <v>42632</v>
       </c>
       <c r="I32" s="102">
-        <v>12500000</v>
+        <v>8330000</v>
       </c>
       <c r="J32" s="103"/>
-      <c r="K32" s="29">
-        <f t="shared" si="2"/>
-        <v>1487500000</v>
+      <c r="K32" s="102">
+        <f t="shared" si="6"/>
+        <v>991670000</v>
       </c>
       <c r="L32" s="103"/>
       <c r="M32" s="29">
-        <f t="shared" si="3"/>
-        <v>11875000</v>
+        <f t="shared" si="7"/>
+        <v>7916666.666666667</v>
       </c>
       <c r="N32" s="103"/>
       <c r="O32" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P32" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q32" s="63">
-        <f t="shared" ref="Q32:Q42" si="6">DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <f t="shared" si="10"/>
         <v>42327</v>
       </c>
       <c r="R32" s="47">
@@ -9454,50 +9465,50 @@
     </row>
     <row r="33" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C33" s="101">
-        <v>41984</v>
+        <v>42033</v>
       </c>
       <c r="D33" s="31">
         <v>46253</v>
       </c>
       <c r="E33" s="102">
-        <v>1000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="F33" s="103"/>
       <c r="G33" s="102"/>
-      <c r="H33" s="31">
+      <c r="H33" s="101">
         <v>42632</v>
       </c>
       <c r="I33" s="102">
-        <v>8330000</v>
+        <v>12500000</v>
       </c>
       <c r="J33" s="103"/>
       <c r="K33" s="102">
-        <f t="shared" si="2"/>
-        <v>991670000</v>
+        <f t="shared" si="6"/>
+        <v>1487500000</v>
       </c>
       <c r="L33" s="103"/>
       <c r="M33" s="29">
-        <f t="shared" si="3"/>
-        <v>7916666.666666667</v>
+        <f t="shared" si="7"/>
+        <v>11875000</v>
       </c>
       <c r="N33" s="103"/>
       <c r="O33" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P33" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q33" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>42327</v>
       </c>
       <c r="R33" s="47">
@@ -9509,50 +9520,50 @@
     </row>
     <row r="34" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" s="101">
-        <v>42033</v>
+        <v>42088</v>
       </c>
       <c r="D34" s="31">
         <v>46253</v>
       </c>
       <c r="E34" s="102">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="F34" s="103"/>
       <c r="G34" s="102"/>
-      <c r="H34" s="101">
+      <c r="H34" s="31">
         <v>42632</v>
       </c>
       <c r="I34" s="102">
-        <v>12500000</v>
+        <v>16670000</v>
       </c>
       <c r="J34" s="103"/>
       <c r="K34" s="102">
-        <f t="shared" si="2"/>
-        <v>1487500000</v>
+        <f t="shared" si="6"/>
+        <v>1983330000</v>
       </c>
       <c r="L34" s="103"/>
       <c r="M34" s="29">
-        <f t="shared" si="3"/>
-        <v>11875000</v>
+        <f t="shared" si="7"/>
+        <v>15833333.333333334</v>
       </c>
       <c r="N34" s="103"/>
       <c r="O34" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P34" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q34" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>42327</v>
       </c>
       <c r="R34" s="47">
@@ -9564,50 +9575,50 @@
     </row>
     <row r="35" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A35" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C35" s="101">
-        <v>42088</v>
+        <v>42114</v>
       </c>
       <c r="D35" s="31">
         <v>46253</v>
       </c>
       <c r="E35" s="102">
-        <v>2000000000</v>
+        <v>1400000000</v>
       </c>
       <c r="F35" s="103"/>
       <c r="G35" s="102"/>
-      <c r="H35" s="31">
+      <c r="H35" s="101">
         <v>42632</v>
       </c>
       <c r="I35" s="102">
-        <v>16670000</v>
+        <v>11670000</v>
       </c>
       <c r="J35" s="103"/>
       <c r="K35" s="102">
-        <f t="shared" si="2"/>
-        <v>1983330000</v>
+        <f t="shared" si="6"/>
+        <v>1388330000</v>
       </c>
       <c r="L35" s="103"/>
       <c r="M35" s="29">
-        <f t="shared" si="3"/>
-        <v>15833333.333333334</v>
+        <f t="shared" si="7"/>
+        <v>11083333.333333334</v>
       </c>
       <c r="N35" s="103"/>
       <c r="O35" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P35" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q35" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>42327</v>
       </c>
       <c r="R35" s="47">
@@ -9619,20 +9630,20 @@
     </row>
     <row r="36" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A36" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" s="101">
-        <v>42114</v>
+        <v>42138</v>
       </c>
       <c r="D36" s="31">
         <v>46253</v>
       </c>
       <c r="E36" s="102">
-        <v>1400000000</v>
+        <v>1500000000</v>
       </c>
       <c r="F36" s="103"/>
       <c r="G36" s="102"/>
@@ -9640,29 +9651,29 @@
         <v>42632</v>
       </c>
       <c r="I36" s="102">
-        <v>11670000</v>
+        <v>12500000</v>
       </c>
       <c r="J36" s="103"/>
       <c r="K36" s="102">
-        <f t="shared" si="2"/>
-        <v>1388330000</v>
+        <f t="shared" si="6"/>
+        <v>1487500000</v>
       </c>
       <c r="L36" s="103"/>
       <c r="M36" s="29">
-        <f t="shared" si="3"/>
-        <v>11083333.333333334</v>
+        <f t="shared" si="7"/>
+        <v>11875000</v>
       </c>
       <c r="N36" s="103"/>
       <c r="O36" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P36" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q36" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>42327</v>
       </c>
       <c r="R36" s="47">
@@ -9674,14 +9685,14 @@
     </row>
     <row r="37" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A37" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C37" s="101">
-        <v>42138</v>
+        <v>42164</v>
       </c>
       <c r="D37" s="31">
         <v>46253</v>
@@ -9699,25 +9710,25 @@
       </c>
       <c r="J37" s="103"/>
       <c r="K37" s="102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1487500000</v>
       </c>
       <c r="L37" s="103"/>
       <c r="M37" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11875000</v>
       </c>
       <c r="N37" s="103"/>
       <c r="O37" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P37" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q37" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>42327</v>
       </c>
       <c r="R37" s="47">
@@ -9729,14 +9740,14 @@
     </row>
     <row r="38" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A38" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C38" s="101">
-        <v>42164</v>
+        <v>42187</v>
       </c>
       <c r="D38" s="31">
         <v>46253</v>
@@ -9754,25 +9765,25 @@
       </c>
       <c r="J38" s="103"/>
       <c r="K38" s="102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1487500000</v>
       </c>
       <c r="L38" s="103"/>
       <c r="M38" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11875000</v>
       </c>
       <c r="N38" s="103"/>
       <c r="O38" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P38" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q38" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>42327</v>
       </c>
       <c r="R38" s="47">
@@ -9784,14 +9795,14 @@
     </row>
     <row r="39" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A39" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C39" s="101">
-        <v>42187</v>
+        <v>42195</v>
       </c>
       <c r="D39" s="31">
         <v>46253</v>
@@ -9809,25 +9820,25 @@
       </c>
       <c r="J39" s="103"/>
       <c r="K39" s="102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1487500000</v>
       </c>
       <c r="L39" s="103"/>
       <c r="M39" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11875000</v>
       </c>
       <c r="N39" s="103"/>
       <c r="O39" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P39" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q39" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>42327</v>
       </c>
       <c r="R39" s="47">
@@ -9839,20 +9850,20 @@
     </row>
     <row r="40" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A40" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="101">
-        <v>42195</v>
+        <v>42215</v>
       </c>
       <c r="D40" s="31">
         <v>46253</v>
       </c>
       <c r="E40" s="102">
-        <v>1500000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F40" s="103"/>
       <c r="G40" s="102"/>
@@ -9860,29 +9871,29 @@
         <v>42632</v>
       </c>
       <c r="I40" s="102">
-        <v>12500000</v>
+        <v>8330000</v>
       </c>
       <c r="J40" s="103"/>
       <c r="K40" s="102">
-        <f t="shared" si="2"/>
-        <v>1487500000</v>
+        <f t="shared" si="6"/>
+        <v>991670000</v>
       </c>
       <c r="L40" s="103"/>
       <c r="M40" s="29">
-        <f t="shared" si="3"/>
-        <v>11875000</v>
+        <f t="shared" si="7"/>
+        <v>7916666.666666667</v>
       </c>
       <c r="N40" s="103"/>
       <c r="O40" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P40" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q40" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>42327</v>
       </c>
       <c r="R40" s="47">
@@ -9894,14 +9905,14 @@
     </row>
     <row r="41" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A41" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="101">
-        <v>42215</v>
+        <v>42229</v>
       </c>
       <c r="D41" s="31">
         <v>46253</v>
@@ -9919,25 +9930,25 @@
       </c>
       <c r="J41" s="103"/>
       <c r="K41" s="102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>991670000</v>
       </c>
       <c r="L41" s="103"/>
       <c r="M41" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7916666.666666667</v>
       </c>
       <c r="N41" s="103"/>
       <c r="O41" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P41" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q41" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>42327</v>
       </c>
       <c r="R41" s="47">
@@ -9947,140 +9958,88 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="83">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="101">
-        <v>42229</v>
-      </c>
-      <c r="D42" s="31">
-        <v>46253</v>
-      </c>
-      <c r="E42" s="102">
-        <v>1000000000</v>
-      </c>
-      <c r="F42" s="103"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="101">
-        <v>42632</v>
-      </c>
-      <c r="I42" s="102">
-        <v>8330000</v>
-      </c>
-      <c r="J42" s="103"/>
-      <c r="K42" s="102">
-        <f t="shared" si="2"/>
-        <v>991670000</v>
-      </c>
-      <c r="L42" s="103"/>
-      <c r="M42" s="29">
-        <f t="shared" si="3"/>
-        <v>7916666.666666667</v>
-      </c>
-      <c r="N42" s="103"/>
-      <c r="O42" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="63">
-        <f t="shared" si="6"/>
-        <v>42327</v>
-      </c>
-      <c r="R42" s="47">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="S42" s="100" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="55"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="91"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="90"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="37"/>
-    </row>
-    <row r="44" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A44" s="184" t="s">
+    <row r="42" spans="1:19" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A42" s="55"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="91"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="90"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="37"/>
+    </row>
+    <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A43" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="184"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="65">
-        <f>SUM(E29:E43)</f>
+      <c r="B43" s="184"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="65">
+        <f>SUM(E28:E42)</f>
         <v>20000000000</v>
       </c>
-      <c r="F44" s="66">
-        <f>SUM(F29:F43)</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="65">
-        <f>SUM(G29:G43)</f>
+      <c r="F43" s="66">
+        <f>SUM(F28:F42)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="65">
+        <f>SUM(G28:G42)</f>
         <v>3045865000</v>
       </c>
-      <c r="H44" s="66"/>
-      <c r="I44" s="65">
-        <f t="shared" ref="I44:P44" si="7">SUM(I29:I43)</f>
+      <c r="H43" s="66"/>
+      <c r="I43" s="65">
+        <f t="shared" ref="I43:P43" si="11">SUM(I28:I42)</f>
         <v>166680000</v>
       </c>
-      <c r="J44" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="65">
-        <f t="shared" si="7"/>
+      <c r="J43" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="65">
+        <f t="shared" si="11"/>
         <v>19833320000</v>
       </c>
-      <c r="L44" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="65">
-        <f t="shared" si="7"/>
+      <c r="L43" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="65">
+        <f t="shared" si="11"/>
         <v>158333333.33333331</v>
       </c>
-      <c r="N44" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="70"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="68"/>
+      <c r="N43" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="68"/>
+    </row>
+    <row r="44" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F45" s="8"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:19" ht="17.25" customHeight="1">
       <c r="F46" s="2"/>
@@ -10088,45 +10047,42 @@
     <row r="47" spans="1:19" ht="17.25" customHeight="1">
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F48" s="2"/>
-    </row>
-    <row r="50" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F50" s="8"/>
-    </row>
-    <row r="58" spans="1:19" s="16" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="3"/>
+    <row r="49" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F49" s="8"/>
+    </row>
+    <row r="57" spans="1:19" s="16" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A57" s="3"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:S28"/>
-  <sortState ref="A10:T14">
-    <sortCondition ref="C10:C14"/>
+  <autoFilter ref="A3:S27"/>
+  <sortState ref="A17:T26">
+    <sortCondition ref="C17:C26"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>

--- a/SO SACH - LA/CONG NO/CONG NO 2015/No Vay EIB.xlsx
+++ b/SO SACH - LA/CONG NO/CONG NO 2015/No Vay EIB.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="104">
   <si>
     <t>Stt</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>1402LDS201502638</t>
+  </si>
+  <si>
+    <t>1402LDS201504121</t>
+  </si>
+  <si>
+    <t>1402LDS201504108</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1070,7 @@
     <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1611,6 +1617,9 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="16" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -7925,13 +7934,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -8357,20 +8366,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="147" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C10" s="148">
-        <v>42181</v>
+        <v>42234</v>
       </c>
       <c r="D10" s="148">
-        <v>42364</v>
+        <v>42418</v>
       </c>
       <c r="E10" s="140"/>
       <c r="F10" s="140">
-        <v>43600</v>
+        <v>52300</v>
       </c>
       <c r="G10" s="149">
-        <v>926064000</v>
+        <v>1151700000</v>
       </c>
       <c r="H10" s="148"/>
       <c r="I10" s="140"/>
@@ -8378,13 +8387,13 @@
       <c r="K10" s="140"/>
       <c r="L10" s="140">
         <f>F10-J10</f>
-        <v>43600</v>
+        <v>52300</v>
       </c>
       <c r="M10" s="140"/>
       <c r="N10" s="140"/>
       <c r="O10" s="140">
         <f>IF((LEFT(B10,4)="1402"),F10*R10*DATEDIF(Q10,O$1,"d")/360,0)</f>
-        <v>145.33333333333334</v>
+        <v>174.33333333333334</v>
       </c>
       <c r="P10" s="140">
         <f>IF((LEFT(B10,4)="1015"),F10*R10*DATEDIF(Q10,Q$1,"d")/360,0)</f>
@@ -8398,9 +8407,8 @@
         <v>0.04</v>
       </c>
       <c r="S10" s="151" t="s">
-        <v>18</v>
-      </c>
-      <c r="T10" s="41"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="135">
@@ -8408,20 +8416,20 @@
         <v>2</v>
       </c>
       <c r="B11" s="136" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C11" s="137">
-        <v>42234</v>
+        <v>42340</v>
       </c>
       <c r="D11" s="137">
-        <v>42418</v>
+        <v>42523</v>
       </c>
       <c r="E11" s="138"/>
       <c r="F11" s="138">
-        <v>52300</v>
+        <v>70900</v>
       </c>
       <c r="G11" s="139">
-        <v>1151700000</v>
+        <v>2019360000</v>
       </c>
       <c r="H11" s="137"/>
       <c r="I11" s="138"/>
@@ -8429,13 +8437,13 @@
       <c r="K11" s="140"/>
       <c r="L11" s="140">
         <f>F11-J11</f>
-        <v>52300</v>
+        <v>70900</v>
       </c>
       <c r="M11" s="138"/>
       <c r="N11" s="138"/>
       <c r="O11" s="138">
         <f>IF((LEFT(B11,4)="1402"),F11*R11*DATEDIF(Q11,O$1,"d")/360,0)</f>
-        <v>174.33333333333334</v>
+        <v>236.33333333333334</v>
       </c>
       <c r="P11" s="138">
         <f>IF((LEFT(B11,4)="1015"),F11*R11*DATEDIF(Q11,Q$1,"d")/360,0)</f>
@@ -8449,9 +8457,8 @@
         <v>0.04</v>
       </c>
       <c r="S11" s="142" t="s">
-        <v>62</v>
-      </c>
-      <c r="T11" s="33"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A12" s="135">
@@ -8459,20 +8466,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="136" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C12" s="137">
-        <v>42340</v>
+        <v>42346</v>
       </c>
       <c r="D12" s="137">
-        <v>42523</v>
+        <v>42529</v>
       </c>
       <c r="E12" s="138"/>
       <c r="F12" s="138">
-        <v>70900</v>
+        <v>62000</v>
       </c>
       <c r="G12" s="139">
-        <v>2019360000</v>
+        <v>1737190000</v>
       </c>
       <c r="H12" s="137"/>
       <c r="I12" s="138"/>
@@ -8480,13 +8487,13 @@
       <c r="K12" s="140"/>
       <c r="L12" s="140">
         <f>F12-J12</f>
-        <v>70900</v>
+        <v>62000</v>
       </c>
       <c r="M12" s="138"/>
       <c r="N12" s="138"/>
       <c r="O12" s="138">
         <f>IF((LEFT(B12,4)="1402"),F12*R12*DATEDIF(Q12,O$1,"d")/360,0)</f>
-        <v>236.33333333333334</v>
+        <v>206.66666666666666</v>
       </c>
       <c r="P12" s="138">
         <f>IF((LEFT(B12,4)="1015"),F12*R12*DATEDIF(Q12,Q$1,"d")/360,0)</f>
@@ -8502,6 +8509,7 @@
       <c r="S12" s="142" t="s">
         <v>18</v>
       </c>
+      <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="135">
@@ -8559,20 +8567,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="147" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C14" s="137">
-        <v>42346</v>
+        <v>42363</v>
       </c>
       <c r="D14" s="137">
-        <v>42529</v>
+        <v>42546</v>
       </c>
       <c r="E14" s="138"/>
       <c r="F14" s="138">
-        <v>62000</v>
+        <v>43000</v>
       </c>
       <c r="G14" s="139">
-        <v>1737190000</v>
+        <v>926064000</v>
       </c>
       <c r="H14" s="137"/>
       <c r="I14" s="138"/>
@@ -8580,13 +8588,13 @@
       <c r="K14" s="140"/>
       <c r="L14" s="140">
         <f>F14-J14</f>
-        <v>62000</v>
+        <v>43000</v>
       </c>
       <c r="M14" s="138"/>
       <c r="N14" s="138"/>
       <c r="O14" s="138">
         <f>IF((LEFT(B14,4)="1402"),F14*R14*DATEDIF(Q14,O$1,"d")/360,0)</f>
-        <v>206.66666666666666</v>
+        <v>143.33333333333334</v>
       </c>
       <c r="P14" s="138">
         <f>IF((LEFT(B14,4)="1015"),F14*R14*DATEDIF(Q14,Q$1,"d")/360,0)</f>
@@ -8602,7 +8610,6 @@
       <c r="S14" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="T14" s="33"/>
     </row>
     <row r="15" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="152"/>
@@ -8635,11 +8642,11 @@
       <c r="E16" s="65"/>
       <c r="F16" s="66">
         <f>SUM(F10:F15)</f>
-        <v>261800</v>
+        <v>261200</v>
       </c>
       <c r="G16" s="65">
         <f>SUM(G9:G13)</f>
-        <v>5834314000</v>
+        <v>6645440000</v>
       </c>
       <c r="H16" s="66"/>
       <c r="I16" s="65"/>
@@ -8650,7 +8657,7 @@
       <c r="K16" s="65"/>
       <c r="L16" s="66">
         <f>SUM(L10:L15)</f>
-        <v>261800</v>
+        <v>261200</v>
       </c>
       <c r="M16" s="65"/>
       <c r="N16" s="65">
@@ -8659,7 +8666,7 @@
       </c>
       <c r="O16" s="66">
         <f>SUM(O10:O15)</f>
-        <v>872.66666666666663</v>
+        <v>870.66666666666674</v>
       </c>
       <c r="P16" s="66">
         <f>SUM(P10:P15)</f>
@@ -9148,7 +9155,7 @@
       </c>
       <c r="G27" s="65">
         <f>SUM(G10:G24)</f>
-        <v>23153880080</v>
+        <v>23965006080</v>
       </c>
       <c r="H27" s="64"/>
       <c r="I27" s="66">
@@ -9186,7 +9193,7 @@
     </row>
     <row r="28" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="83">
-        <f t="shared" ref="A28:A41" si="5">ROW()-25</f>
+        <f t="shared" ref="A28:A42" si="5">ROW()-25</f>
         <v>3</v>
       </c>
       <c r="B28" s="52" t="s">
@@ -9398,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="63">
-        <f t="shared" ref="Q31:Q41" si="10">DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <f t="shared" ref="Q31:Q42" si="10">DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
         <v>42327</v>
       </c>
       <c r="R31" s="47">
@@ -9958,125 +9965,198 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="55"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="91"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="89"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="37"/>
-    </row>
-    <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="184" t="s">
+    <row r="42" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A42" s="83">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="101">
+        <v>42362</v>
+      </c>
+      <c r="D42" s="101">
+        <v>42545</v>
+      </c>
+      <c r="E42" s="102"/>
+      <c r="F42" s="103">
+        <v>88000</v>
+      </c>
+      <c r="G42" s="102"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="102">
+        <f t="shared" ref="K42" si="11">E42-I42</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="103">
+        <f>F42</f>
+        <v>88000</v>
+      </c>
+      <c r="M42" s="29">
+        <f t="shared" ref="M42" si="12">IF((LEFT(B42,4)="1402"),E42*R42*DATEDIF(Q42,$M$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="103"/>
+      <c r="O42" s="28">
+        <f t="shared" ref="O42" si="13">IF((LEFT(B42,4)="1402"),F42*R42*DATEDIF(Q42,O$1,"d")/360,0)</f>
+        <v>264</v>
+      </c>
+      <c r="P42" s="27">
+        <f t="shared" ref="P42" si="14">IF((LEFT(B42,4)="1015"),F42*R42*DATEDIF(Q42,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="63">
+        <f t="shared" si="10"/>
+        <v>42327</v>
+      </c>
+      <c r="R42" s="47">
+        <v>0.04</v>
+      </c>
+      <c r="S42" s="100"/>
+    </row>
+    <row r="43" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A43" s="83"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="103"/>
+      <c r="O43" s="103"/>
+      <c r="P43" s="188"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="100"/>
+    </row>
+    <row r="44" spans="1:19" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A44" s="55"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="91"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="90"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="37"/>
+    </row>
+    <row r="45" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A45" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="184"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="65">
-        <f>SUM(E28:E42)</f>
+      <c r="B45" s="184"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="65">
+        <f>SUM(E28:E44)</f>
         <v>20000000000</v>
       </c>
-      <c r="F43" s="66">
-        <f>SUM(F28:F42)</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="65">
-        <f>SUM(G28:G42)</f>
+      <c r="F45" s="66">
+        <f>SUM(F28:F44)</f>
+        <v>88000</v>
+      </c>
+      <c r="G45" s="65">
+        <f>SUM(G28:G44)</f>
         <v>3045865000</v>
       </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="65">
-        <f t="shared" ref="I43:P43" si="11">SUM(I28:I42)</f>
+      <c r="H45" s="66"/>
+      <c r="I45" s="65">
+        <f t="shared" ref="I45:P45" si="15">SUM(I28:I44)</f>
         <v>166680000</v>
       </c>
-      <c r="J43" s="66">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="65">
-        <f t="shared" si="11"/>
+      <c r="J45" s="66">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="65">
+        <f t="shared" si="15"/>
         <v>19833320000</v>
       </c>
-      <c r="L43" s="66">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="65">
-        <f t="shared" si="11"/>
+      <c r="L45" s="66">
+        <f t="shared" si="15"/>
+        <v>88000</v>
+      </c>
+      <c r="M45" s="65">
+        <f t="shared" si="15"/>
         <v>158333333.33333331</v>
       </c>
-      <c r="N43" s="66">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="66">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="66">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="68"/>
-    </row>
-    <row r="44" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F45" s="2"/>
+      <c r="N45" s="66">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="66">
+        <f t="shared" si="15"/>
+        <v>264</v>
+      </c>
+      <c r="P45" s="66">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="68"/>
     </row>
     <row r="46" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F46" s="2"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:19" ht="17.25" customHeight="1">
       <c r="F47" s="2"/>
     </row>
+    <row r="48" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F48" s="2"/>
+    </row>
     <row r="49" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F49" s="8"/>
-    </row>
-    <row r="57" spans="1:19" s="16" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="3"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="51" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F51" s="8"/>
+    </row>
+    <row r="59" spans="1:19" s="16" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A59" s="3"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:S27"/>
-  <sortState ref="A17:T26">
-    <sortCondition ref="C17:C26"/>
+  <sortState ref="A10:T14">
+    <sortCondition ref="C10:C14"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A45:B45"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
